--- a/public/uploads/Test_Sample_v2.xlsx
+++ b/public/uploads/Test_Sample_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haridher\Downloads\archived_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754D648C-901A-4497-9370-0FA38C7D2E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE67E5DB-F927-4D9F-AF5F-9CF0D42E1DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{330C708C-5D41-460D-8AE7-4DC33D46AD04}"/>
   </bookViews>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW4" authorId="0" shapeId="0" xr:uid="{B3DC0E48-9784-4EAA-B0C5-225B9D89472A}">
+    <comment ref="AX4" authorId="0" shapeId="0" xr:uid="{B3DC0E48-9784-4EAA-B0C5-225B9D89472A}">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX4" authorId="0" shapeId="0" xr:uid="{A10D4E10-8A5C-4890-8A2F-5E8B637366AF}">
+    <comment ref="AY4" authorId="0" shapeId="0" xr:uid="{A10D4E10-8A5C-4890-8A2F-5E8B637366AF}">
       <text>
         <r>
           <rPr>
@@ -211,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY4" authorId="0" shapeId="0" xr:uid="{8EECF27F-6537-447F-BB82-30F22392C8F2}">
+    <comment ref="AZ4" authorId="0" shapeId="0" xr:uid="{8EECF27F-6537-447F-BB82-30F22392C8F2}">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA4" authorId="0" shapeId="0" xr:uid="{5F01188A-53A8-4391-9DA6-F0393EC2E4F6}">
+    <comment ref="BB4" authorId="0" shapeId="0" xr:uid="{5F01188A-53A8-4391-9DA6-F0393EC2E4F6}">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW5" authorId="0" shapeId="0" xr:uid="{2A4A0342-ECEA-434F-84DE-1204A0442852}">
+    <comment ref="AX5" authorId="0" shapeId="0" xr:uid="{2A4A0342-ECEA-434F-84DE-1204A0442852}">
       <text>
         <r>
           <rPr>
@@ -406,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX5" authorId="0" shapeId="0" xr:uid="{447C19C7-5094-44C6-8F61-66D71E21999C}">
+    <comment ref="AY5" authorId="0" shapeId="0" xr:uid="{447C19C7-5094-44C6-8F61-66D71E21999C}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY5" authorId="0" shapeId="0" xr:uid="{9DAEC6FC-6E4C-4DBD-AEBC-32271085ABEA}">
+    <comment ref="AZ5" authorId="0" shapeId="0" xr:uid="{9DAEC6FC-6E4C-4DBD-AEBC-32271085ABEA}">
       <text>
         <r>
           <rPr>
@@ -432,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA5" authorId="0" shapeId="0" xr:uid="{1CDCF3C3-D599-4FC8-A942-DFD24E6FF5CA}">
+    <comment ref="BB5" authorId="0" shapeId="0" xr:uid="{1CDCF3C3-D599-4FC8-A942-DFD24E6FF5CA}">
       <text>
         <r>
           <rPr>
@@ -471,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA15" authorId="0" shapeId="0" xr:uid="{37E03E73-11B6-49B3-9289-EA49DF961C7B}">
+    <comment ref="BB15" authorId="0" shapeId="0" xr:uid="{37E03E73-11B6-49B3-9289-EA49DF961C7B}">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW17" authorId="0" shapeId="0" xr:uid="{3DF50881-7E3D-4BDE-9CA3-196AF9735DD9}">
+    <comment ref="AX17" authorId="0" shapeId="0" xr:uid="{3DF50881-7E3D-4BDE-9CA3-196AF9735DD9}">
       <text>
         <r>
           <rPr>
@@ -510,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX17" authorId="0" shapeId="0" xr:uid="{57CAF602-E8FB-42B3-8BAB-916B145600DB}">
+    <comment ref="AY17" authorId="0" shapeId="0" xr:uid="{57CAF602-E8FB-42B3-8BAB-916B145600DB}">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY17" authorId="0" shapeId="0" xr:uid="{403063E8-F5A5-4CC9-9219-88E5BC372162}">
+    <comment ref="AZ17" authorId="0" shapeId="0" xr:uid="{403063E8-F5A5-4CC9-9219-88E5BC372162}">
       <text>
         <r>
           <rPr>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="598">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2361,6 +2361,9 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>Please select the dates during this Spring Semester that you definitely won't be available on. (Only select dates that line up with your availability, e.g. if you selected no timeslots for Tuesdays in the section above, you don't need to list Tuesday dates as unavailable in this section) [Jan]</t>
   </si>
 </sst>
 </file>
@@ -2798,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E283A7-4440-43D5-9670-E0A39CFCDEA9}">
-  <dimension ref="A1:AP21"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2812,10 +2815,10 @@
     <col min="11" max="11" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="98.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="226.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="226.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2922,28 +2925,31 @@
         <v>40</v>
       </c>
       <c r="AJ1" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45520.840164837966</v>
       </c>
@@ -3031,25 +3037,26 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AN2" s="8">
         <v>19</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2" t="s">
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45520.844875543982</v>
       </c>
@@ -3133,25 +3140,28 @@
         <v>55</v>
       </c>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AK3" s="8"/>
       <c r="AL3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="2" t="s">
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45520.877430636574</v>
       </c>
@@ -3249,23 +3259,26 @@
       <c r="AI4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AL4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AM4" s="8"/>
-      <c r="AN4" s="2" t="s">
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45520.880191446762</v>
       </c>
@@ -3357,25 +3370,28 @@
         <v>55</v>
       </c>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AK5" s="8"/>
       <c r="AL5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="2" t="s">
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AP5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45520.88518646991</v>
       </c>
@@ -3467,27 +3483,28 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="8" t="s">
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8" t="s">
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AM6" s="8">
+      <c r="AN6" s="8">
         <v>19</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AO6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AP6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45520.898445312501</v>
       </c>
@@ -3579,25 +3596,28 @@
         <v>55</v>
       </c>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AK7" s="8"/>
       <c r="AL7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="2" t="s">
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45520.90976166667</v>
       </c>
@@ -3689,27 +3709,28 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="8" t="s">
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8" t="s">
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AN8" s="8">
         <v>19</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AO8" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="AO8" s="2" t="s">
+      <c r="AP8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45520.962110347224</v>
       </c>
@@ -3795,25 +3816,28 @@
         <v>55</v>
       </c>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8" t="s">
+      <c r="AJ9" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AK9" s="8"/>
       <c r="AL9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="2" t="s">
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="AO9" s="2" t="s">
+      <c r="AP9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AQ9" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45520.96222105324</v>
       </c>
@@ -3903,27 +3927,28 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="8" t="s">
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8" t="s">
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AN10" s="8">
         <v>19</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AP10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45520.962562083332</v>
       </c>
@@ -4016,24 +4041,27 @@
         <v>55</v>
       </c>
       <c r="AJ11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AK11" s="8" t="s">
+      <c r="AL11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AL11" s="8"/>
       <c r="AM11" s="8"/>
-      <c r="AN11" s="2" t="s">
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AO11" s="2" t="s">
+      <c r="AP11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AQ11" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45520.976700416664</v>
       </c>
@@ -4125,25 +4153,28 @@
         <v>55</v>
       </c>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8" t="s">
+      <c r="AJ12" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AK12" s="8"/>
       <c r="AL12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="2" t="s">
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="AO12" s="2" t="s">
+      <c r="AP12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AQ12" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45520.977396840273</v>
       </c>
@@ -4227,27 +4258,28 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="8" t="s">
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8" t="s">
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AM13" s="8">
+      <c r="AN13" s="8">
         <v>19</v>
       </c>
-      <c r="AN13" s="2" t="s">
+      <c r="AO13" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="AO13" s="2" t="s">
+      <c r="AP13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AP13" s="2" t="s">
+      <c r="AQ13" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45521.073736099541</v>
       </c>
@@ -4331,25 +4363,28 @@
         <v>55</v>
       </c>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8" t="s">
+      <c r="AJ14" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AK14" s="8"/>
       <c r="AL14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="2" t="s">
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AP14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AQ14" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45521.416893715279</v>
       </c>
@@ -4441,23 +4476,26 @@
       <c r="AI15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8" t="s">
+      <c r="AJ15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AL15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="AM15" s="8"/>
-      <c r="AN15" s="2" t="s">
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="AO15" s="2" t="s">
+      <c r="AP15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AP15" s="2" t="s">
+      <c r="AQ15" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45521.631505439815</v>
       </c>
@@ -4550,24 +4588,27 @@
         <v>55</v>
       </c>
       <c r="AJ16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AK16" s="8" t="s">
+      <c r="AL16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AL16" s="8"/>
       <c r="AM16" s="8"/>
-      <c r="AN16" s="2" t="s">
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="AO16" s="2" t="s">
+      <c r="AP16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AQ16" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45521.638139016199</v>
       </c>
@@ -4651,25 +4692,28 @@
         <v>55</v>
       </c>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8" t="s">
+      <c r="AJ17" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AK17" s="8"/>
       <c r="AL17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="2" t="s">
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="AO17" s="2" t="s">
+      <c r="AP17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AP17" s="2" t="s">
+      <c r="AQ17" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45521.795106377314</v>
       </c>
@@ -4764,24 +4808,27 @@
         <v>55</v>
       </c>
       <c r="AJ18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AK18" s="8" t="s">
+      <c r="AL18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AL18" s="8"/>
       <c r="AM18" s="8"/>
-      <c r="AN18" s="2" t="s">
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="AO18" s="2" t="s">
+      <c r="AP18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AP18" s="2" t="s">
+      <c r="AQ18" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45522.483493587963</v>
       </c>
@@ -4865,25 +4912,28 @@
         <v>55</v>
       </c>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8" t="s">
+      <c r="AJ19" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AK19" s="8"/>
       <c r="AL19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="2" t="s">
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="AO19" s="2" t="s">
+      <c r="AP19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AP19" s="2" t="s">
+      <c r="AQ19" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45522.488518784725</v>
       </c>
@@ -4975,27 +5025,28 @@
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="8" t="s">
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8" t="s">
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AM20" s="8">
+      <c r="AN20" s="8">
         <v>19</v>
       </c>
-      <c r="AN20" s="2" t="s">
+      <c r="AO20" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="AO20" s="2" t="s">
+      <c r="AP20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AP20" s="2" t="s">
+      <c r="AQ20" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>45522.53674865741</v>
       </c>
@@ -5089,19 +5140,22 @@
       <c r="AI21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8" t="s">
+      <c r="AJ21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AL21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AM21" s="8"/>
-      <c r="AN21" s="2" t="s">
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="AO21" s="2" t="s">
+      <c r="AP21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AP21" s="2" t="s">
+      <c r="AQ21" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5113,10 +5167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5105C0CE-81ED-4EAC-85F2-91D87B6ED407}">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5127,7 +5181,7 @@
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.6640625" customWidth="1"/>
     <col min="20" max="20" width="24.77734375" bestFit="1" customWidth="1"/>
@@ -5136,11 +5190,11 @@
     <col min="33" max="33" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="226.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="138.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="226.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="138.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5274,34 +5328,37 @@
         <v>40</v>
       </c>
       <c r="AS1" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45530.45733380787</v>
       </c>
@@ -5420,25 +5477,28 @@
       <c r="AR2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AU2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AV2" s="8"/>
-      <c r="AW2" s="2" t="s">
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>45530.462335625001</v>
       </c>
@@ -5549,27 +5609,30 @@
         <v>55</v>
       </c>
       <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8" t="s">
+      <c r="AS3" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AT3" s="8"/>
       <c r="AU3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="2" t="s">
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>45541.611743043977</v>
       </c>
@@ -5691,30 +5754,33 @@
         <v>55</v>
       </c>
       <c r="AS4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AU4" s="8"/>
       <c r="AV4" s="8"/>
-      <c r="AW4" s="2" t="s">
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="BA4" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BA4" s="2" t="s">
+      <c r="BB4" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>45537.600239722218</v>
       </c>
@@ -5823,29 +5889,32 @@
         <v>55</v>
       </c>
       <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8" t="s">
+      <c r="AS5" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AT5" s="8"/>
       <c r="AU5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="2" t="s">
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AX5" s="2" t="s">
+      <c r="AY5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AY5" s="2" t="s">
+      <c r="AZ5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2" t="s">
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>45530.877909421295</v>
       </c>
@@ -5956,29 +6025,30 @@
       <c r="AR6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AS6" s="8" t="s">
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8" t="s">
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AV6" s="8">
+      <c r="AW6" s="8">
         <v>19</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AX6" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AX6" s="2" t="s">
+      <c r="AY6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AY6" s="2" t="s">
+      <c r="AZ6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>45531.655922488426</v>
       </c>
@@ -6093,29 +6163,30 @@
       <c r="AR7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AS7" s="8" t="s">
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8" t="s">
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AV7" s="8">
+      <c r="AW7" s="8">
         <v>19</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AX7" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45531.852714618057</v>
       </c>
@@ -6234,25 +6305,28 @@
       <c r="AR8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8" t="s">
+      <c r="AS8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AU8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="AV8" s="8"/>
-      <c r="AW8" s="2" t="s">
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AX8" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AY8" s="2" t="s">
+      <c r="AZ8" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45531.875323831016</v>
       </c>
@@ -6367,29 +6441,30 @@
       <c r="AR9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AS9" s="8" t="s">
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8" t="s">
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AV9" s="8">
+      <c r="AW9" s="8">
         <v>19</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AX9" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AX9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AY9" s="2" t="s">
+      <c r="AZ9" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45531.876074583335</v>
       </c>
@@ -6509,26 +6584,29 @@
         <v>55</v>
       </c>
       <c r="AS10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT10" s="8" t="s">
+      <c r="AU10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AU10" s="8"/>
       <c r="AV10" s="8"/>
-      <c r="AW10" s="2" t="s">
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="AX10" s="2" t="s">
+      <c r="AY10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AY10" s="2" t="s">
+      <c r="AZ10" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45531.876650740742</v>
       </c>
@@ -6637,27 +6715,30 @@
         <v>55</v>
       </c>
       <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8" t="s">
+      <c r="AS11" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AT11" s="8"/>
       <c r="AU11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="2" t="s">
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AX11" s="2" t="s">
+      <c r="AY11" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AY11" s="2" t="s">
+      <c r="AZ11" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45531.903458356479</v>
       </c>
@@ -6770,29 +6851,30 @@
       <c r="AR12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AS12" s="8" t="s">
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8" t="s">
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AV12" s="8">
+      <c r="AW12" s="8">
         <v>19</v>
       </c>
-      <c r="AW12" s="2" t="s">
+      <c r="AX12" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="AX12" s="2" t="s">
+      <c r="AY12" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="AY12" s="2" t="s">
+      <c r="AZ12" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45531.915028773146</v>
       </c>
@@ -6910,26 +6992,29 @@
         <v>55</v>
       </c>
       <c r="AS13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT13" s="8" t="s">
+      <c r="AU13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AU13" s="8"/>
       <c r="AV13" s="8"/>
-      <c r="AW13" s="2" t="s">
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AX13" s="2" t="s">
+      <c r="AY13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AY13" s="2" t="s">
+      <c r="AZ13" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>45532.131844212963</v>
       </c>
@@ -7042,29 +7127,30 @@
       <c r="AR14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AS14" s="8" t="s">
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8" t="s">
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AV14" s="8">
+      <c r="AW14" s="8">
         <v>19</v>
       </c>
-      <c r="AW14" s="2" t="s">
+      <c r="AX14" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AX14" s="2" t="s">
+      <c r="AY14" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AY14" s="2" t="s">
+      <c r="AZ14" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45538.747660810186</v>
       </c>
@@ -7181,27 +7267,30 @@
       <c r="AR15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8" t="s">
+      <c r="AS15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AU15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AV15" s="8"/>
-      <c r="AW15" s="2" t="s">
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AX15" s="2" t="s">
+      <c r="AY15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AY15" s="2" t="s">
+      <c r="AZ15" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2" t="s">
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>45532.837414942129</v>
       </c>
@@ -7314,31 +7403,32 @@
       <c r="AR16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AS16" s="8" t="s">
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="8" t="s">
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AV16" s="8">
+      <c r="AW16" s="8">
         <v>19</v>
       </c>
-      <c r="AW16" s="2" t="s">
+      <c r="AX16" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="AX16" s="2" t="s">
+      <c r="AY16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AY16" s="2" t="s">
+      <c r="AZ16" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="AZ16" s="2"/>
-      <c r="BA16" s="2" t="s">
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>45538.571469479168</v>
       </c>
@@ -7449,29 +7539,32 @@
         <v>55</v>
       </c>
       <c r="AR17" s="8"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="8" t="s">
+      <c r="AS17" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AT17" s="8"/>
       <c r="AU17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="2" t="s">
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AX17" s="2" t="s">
+      <c r="AY17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AY17" s="2" t="s">
+      <c r="AZ17" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2" t="s">
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>45533.496223854163</v>
       </c>
@@ -7591,28 +7684,31 @@
         <v>55</v>
       </c>
       <c r="AS18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT18" s="8" t="s">
+      <c r="AU18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AU18" s="8"/>
       <c r="AV18" s="8"/>
-      <c r="AW18" s="2" t="s">
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AX18" s="2" t="s">
+      <c r="AY18" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="AY18" s="2" t="s">
+      <c r="AZ18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2" t="s">
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>45533.614213368055</v>
       </c>
@@ -7725,29 +7821,32 @@
         <v>55</v>
       </c>
       <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="8" t="s">
+      <c r="AS19" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="AT19" s="8"/>
       <c r="AU19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="2" t="s">
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="AX19" s="2" t="s">
+      <c r="AY19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AY19" s="2" t="s">
+      <c r="AZ19" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2" t="s">
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>45533.694361712958</v>
       </c>
@@ -7860,31 +7959,32 @@
       <c r="AR20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AS20" s="8" t="s">
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT20" s="8"/>
-      <c r="AU20" s="8" t="s">
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AV20" s="8">
+      <c r="AW20" s="8">
         <v>19</v>
       </c>
-      <c r="AW20" s="2" t="s">
+      <c r="AX20" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="AX20" s="2" t="s">
+      <c r="AY20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AY20" s="2" t="s">
+      <c r="AZ20" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2" t="s">
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>45533.715989803241</v>
       </c>
@@ -8001,27 +8101,30 @@
       <c r="AR21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8" t="s">
+      <c r="AS21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AU21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AV21" s="8"/>
-      <c r="AW21" s="2" t="s">
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="AX21" s="2" t="s">
+      <c r="AY21" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="AY21" s="2" t="s">
+      <c r="AZ21" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2" t="s">
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>45533.920907638894</v>
       </c>
@@ -8134,32 +8237,34 @@
       <c r="AR22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AS22" s="8" t="s">
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8" t="s">
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AV22" s="8">
+      <c r="AW22" s="8">
         <v>19</v>
       </c>
-      <c r="AW22" s="2" t="s">
+      <c r="AX22" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="AX22" s="2" t="s">
+      <c r="AY22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AY22" s="2" t="s">
+      <c r="AZ22" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2" t="s">
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>